--- a/device-management.xlsx
+++ b/device-management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blickflo\Documents\SanTrix Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FE76FA-560A-488C-BE23-28F03E947CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFD9DC3-7F51-43E7-9FFF-BD5316B11B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4770" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>Nr.</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>MitarbeiterName</t>
+  </si>
+  <si>
+    <t>BOSE</t>
   </si>
 </sst>
 </file>
@@ -654,19 +657,19 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -692,38 +695,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -744,12 +747,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -761,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
         <v>82</v>
@@ -770,7 +773,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -796,7 +799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -822,12 +825,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -848,38 +851,38 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -900,7 +903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -926,7 +929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -952,7 +955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -978,7 +981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>

--- a/device-management.xlsx
+++ b/device-management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blickflo\Documents\SanTrix Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFD9DC3-7F51-43E7-9FFF-BD5316B11B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B39A443-C4A6-46E7-A6F1-DACE699240E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4770" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1320" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>JD-0410DE-2</t>
   </si>
   <si>
-    <t>ABER VK BLEIBT GLEICH</t>
-  </si>
-  <si>
     <t>DIVERSE</t>
   </si>
   <si>
@@ -122,18 +119,12 @@
     <t>A48142</t>
   </si>
   <si>
-    <t>Apple BG ETEM - Apple iPhone 14 128GB Midnight</t>
-  </si>
-  <si>
     <t>APPLE</t>
   </si>
   <si>
     <t>MPUF3ZD/A</t>
   </si>
   <si>
-    <t>APPLE BG ETEM - APPLE IPHONE 14 128GB MIDNIGHT</t>
-  </si>
-  <si>
     <t>EFB</t>
   </si>
   <si>
@@ -291,6 +282,15 @@
   </si>
   <si>
     <t>BOSE</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 128GB Midnight</t>
+  </si>
+  <si>
+    <t>APPLE IPHONE 14 128GB MIDNIGHT</t>
+  </si>
+  <si>
+    <t>Cherry B.UNLIMITED</t>
   </si>
 </sst>
 </file>
@@ -657,24 +657,24 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -695,38 +695,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
       <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -744,119 +744,119 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
         <v>79</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>80</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -868,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
@@ -877,264 +877,264 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>35</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
         <v>43</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>63</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" t="s">
         <v>67</v>
       </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
+      <c r="H18" t="s">
         <v>80</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
